--- a/data/136/ISTAT/Business confidence Index in the market services sector local_historical.xlsx
+++ b/data/136/ISTAT/Business confidence Index in the market services sector local_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Business confidence Index in t" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,791 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
-  <si>
-    <t>2003-01</t>
-  </si>
-  <si>
-    <t>2003-02</t>
-  </si>
-  <si>
-    <t>2003-03</t>
-  </si>
-  <si>
-    <t>2003-04</t>
-  </si>
-  <si>
-    <t>2003-05</t>
-  </si>
-  <si>
-    <t>2003-06</t>
-  </si>
-  <si>
-    <t>2003-07</t>
-  </si>
-  <si>
-    <t>2003-08</t>
-  </si>
-  <si>
-    <t>2003-09</t>
-  </si>
-  <si>
-    <t>2003-10</t>
-  </si>
-  <si>
-    <t>2003-11</t>
-  </si>
-  <si>
-    <t>2003-12</t>
-  </si>
-  <si>
-    <t>2004-01</t>
-  </si>
-  <si>
-    <t>2004-02</t>
-  </si>
-  <si>
-    <t>2004-03</t>
-  </si>
-  <si>
-    <t>2004-04</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2004-06</t>
-  </si>
-  <si>
-    <t>2004-07</t>
-  </si>
-  <si>
-    <t>2004-08</t>
-  </si>
-  <si>
-    <t>2004-09</t>
-  </si>
-  <si>
-    <t>2004-10</t>
-  </si>
-  <si>
-    <t>2004-11</t>
-  </si>
-  <si>
-    <t>2004-12</t>
-  </si>
-  <si>
-    <t>2005-01</t>
-  </si>
-  <si>
-    <t>2005-02</t>
-  </si>
-  <si>
-    <t>2005-03</t>
-  </si>
-  <si>
-    <t>2005-04</t>
-  </si>
-  <si>
-    <t>2005-05</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2005-07</t>
-  </si>
-  <si>
-    <t>2005-08</t>
-  </si>
-  <si>
-    <t>2005-09</t>
-  </si>
-  <si>
-    <t>2005-10</t>
-  </si>
-  <si>
-    <t>2005-11</t>
-  </si>
-  <si>
-    <t>2005-12</t>
-  </si>
-  <si>
-    <t>2006-01</t>
-  </si>
-  <si>
-    <t>2006-02</t>
-  </si>
-  <si>
-    <t>2006-03</t>
-  </si>
-  <si>
-    <t>2006-04</t>
-  </si>
-  <si>
-    <t>2006-05</t>
-  </si>
-  <si>
-    <t>2006-06</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2006-08</t>
-  </si>
-  <si>
-    <t>2006-09</t>
-  </si>
-  <si>
-    <t>2006-10</t>
-  </si>
-  <si>
-    <t>2006-11</t>
-  </si>
-  <si>
-    <t>2006-12</t>
-  </si>
-  <si>
-    <t>2007-01</t>
-  </si>
-  <si>
-    <t>2007-02</t>
-  </si>
-  <si>
-    <t>2007-03</t>
-  </si>
-  <si>
-    <t>2007-04</t>
-  </si>
-  <si>
-    <t>2007-05</t>
-  </si>
-  <si>
-    <t>2007-06</t>
-  </si>
-  <si>
-    <t>2007-07</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2007-09</t>
-  </si>
-  <si>
-    <t>2007-10</t>
-  </si>
-  <si>
-    <t>2007-11</t>
-  </si>
-  <si>
-    <t>2007-12</t>
-  </si>
-  <si>
-    <t>2008-01</t>
-  </si>
-  <si>
-    <t>2008-02</t>
-  </si>
-  <si>
-    <t>2008-03</t>
-  </si>
-  <si>
-    <t>2008-04</t>
-  </si>
-  <si>
-    <t>2008-05</t>
-  </si>
-  <si>
-    <t>2008-06</t>
-  </si>
-  <si>
-    <t>2008-07</t>
-  </si>
-  <si>
-    <t>2008-08</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2008-10</t>
-  </si>
-  <si>
-    <t>2008-11</t>
-  </si>
-  <si>
-    <t>2008-12</t>
-  </si>
-  <si>
-    <t>2009-01</t>
-  </si>
-  <si>
-    <t>2009-02</t>
-  </si>
-  <si>
-    <t>2009-03</t>
-  </si>
-  <si>
-    <t>2009-04</t>
-  </si>
-  <si>
-    <t>2009-05</t>
-  </si>
-  <si>
-    <t>2009-06</t>
-  </si>
-  <si>
-    <t>2009-07</t>
-  </si>
-  <si>
-    <t>2009-08</t>
-  </si>
-  <si>
-    <t>2009-09</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2009-11</t>
-  </si>
-  <si>
-    <t>2009-12</t>
-  </si>
-  <si>
-    <t>2010-01</t>
-  </si>
-  <si>
-    <t>2010-02</t>
-  </si>
-  <si>
-    <t>2010-03</t>
-  </si>
-  <si>
-    <t>2010-04</t>
-  </si>
-  <si>
-    <t>2010-05</t>
-  </si>
-  <si>
-    <t>2010-06</t>
-  </si>
-  <si>
-    <t>2010-07</t>
-  </si>
-  <si>
-    <t>2010-08</t>
-  </si>
-  <si>
-    <t>2010-09</t>
-  </si>
-  <si>
-    <t>2010-10</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2010-12</t>
-  </si>
-  <si>
-    <t>2011-01</t>
-  </si>
-  <si>
-    <t>2011-02</t>
-  </si>
-  <si>
-    <t>2011-03</t>
-  </si>
-  <si>
-    <t>2011-04</t>
-  </si>
-  <si>
-    <t>2011-05</t>
-  </si>
-  <si>
-    <t>2011-06</t>
-  </si>
-  <si>
-    <t>2011-07</t>
-  </si>
-  <si>
-    <t>2011-08</t>
-  </si>
-  <si>
-    <t>2011-09</t>
-  </si>
-  <si>
-    <t>2011-10</t>
-  </si>
-  <si>
-    <t>2011-11</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2012-01</t>
-  </si>
-  <si>
-    <t>2012-02</t>
-  </si>
-  <si>
-    <t>2012-03</t>
-  </si>
-  <si>
-    <t>2012-04</t>
-  </si>
-  <si>
-    <t>2012-05</t>
-  </si>
-  <si>
-    <t>2012-06</t>
-  </si>
-  <si>
-    <t>2012-07</t>
-  </si>
-  <si>
-    <t>2012-08</t>
-  </si>
-  <si>
-    <t>2012-09</t>
-  </si>
-  <si>
-    <t>2012-10</t>
-  </si>
-  <si>
-    <t>2012-11</t>
-  </si>
-  <si>
-    <t>2012-12</t>
-  </si>
-  <si>
-    <t>2013-01</t>
-  </si>
-  <si>
-    <t>2013-02</t>
-  </si>
-  <si>
-    <t>2013-03</t>
-  </si>
-  <si>
-    <t>2013-04</t>
-  </si>
-  <si>
-    <t>2013-05</t>
-  </si>
-  <si>
-    <t>2013-06</t>
-  </si>
-  <si>
-    <t>2013-07</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t>2013-09</t>
-  </si>
-  <si>
-    <t>2013-10</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2014-01</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>2014-03</t>
-  </si>
-  <si>
-    <t>2014-04</t>
-  </si>
-  <si>
-    <t>2014-05</t>
-  </si>
-  <si>
-    <t>2014-06</t>
-  </si>
-  <si>
-    <t>2014-07</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2014-09</t>
-  </si>
-  <si>
-    <t>2014-10</t>
-  </si>
-  <si>
-    <t>2014-11</t>
-  </si>
-  <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>2015-02</t>
-  </si>
-  <si>
-    <t>2015-03</t>
-  </si>
-  <si>
-    <t>2015-04</t>
-  </si>
-  <si>
-    <t>2015-05</t>
-  </si>
-  <si>
-    <t>2015-06</t>
-  </si>
-  <si>
-    <t>2015-07</t>
-  </si>
-  <si>
-    <t>2015-08</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>2015-10</t>
-  </si>
-  <si>
-    <t>2015-11</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2016-02</t>
-  </si>
-  <si>
-    <t>2016-03</t>
-  </si>
-  <si>
-    <t>2016-04</t>
-  </si>
-  <si>
-    <t>2016-05</t>
-  </si>
-  <si>
-    <t>2016-06</t>
-  </si>
-  <si>
-    <t>2016-07</t>
-  </si>
-  <si>
-    <t>2016-08</t>
-  </si>
-  <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-01</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-08</t>
-  </si>
-  <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-01</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-10</t>
-  </si>
-  <si>
-    <t>2021-11</t>
-  </si>
-  <si>
-    <t>2021-12</t>
-  </si>
-  <si>
-    <t>confidence climate in the market services sector//Nord-ovest</t>
-  </si>
-  <si>
-    <t>confidence climate in the market services sector//Nord-est</t>
-  </si>
-  <si>
-    <t>confidence climate in the market services sector//Centro (I)</t>
-  </si>
-  <si>
-    <t>confidence climate in the market services sector//Mezzogiorno</t>
-  </si>
-  <si>
-    <t>business situation development over the past 3 months balance//Nord-ovest</t>
-  </si>
-  <si>
-    <t>business situation development over the past 3 months balance//Nord-est</t>
-  </si>
-  <si>
-    <t>business situation development over the past 3 months balance//Centro (I)</t>
-  </si>
-  <si>
-    <t>business situation development over the past 3 months balance//Mezzogiorno</t>
-  </si>
-  <si>
-    <t>evolution of the demand over the past 3 months balance//Nord-ovest</t>
-  </si>
-  <si>
-    <t>evolution of the demand over the past 3 months balance//Nord-est</t>
-  </si>
-  <si>
-    <t>evolution of the demand over the past 3 months balance//Centro (I)</t>
-  </si>
-  <si>
-    <t>evolution of the demand over the past 3 months balance//Mezzogiorno</t>
-  </si>
-  <si>
-    <t>expectations of the demand over the next 3 months balance//Nord-ovest</t>
-  </si>
-  <si>
-    <t>expectations of the demand over the next 3 months balance//Nord-est</t>
-  </si>
-  <si>
-    <t>expectations of the demand over the next 3 months balance//Centro (I)</t>
-  </si>
-  <si>
-    <t>expectations of the demand over the next 3 months balance//Mezzogiorno</t>
-  </si>
-  <si>
-    <t>expectations of the employment over the next 3 months balance//Nord-ovest</t>
-  </si>
-  <si>
-    <t>expectations of the employment over the next 3 months balance//Nord-est</t>
-  </si>
-  <si>
-    <t>expectations of the employment over the next 3 months balance//Centro (I)</t>
-  </si>
-  <si>
-    <t>expectations of the employment over the next 3 months balance//Mezzogiorno</t>
-  </si>
-  <si>
-    <t>expectations of the prices over the next 3 months balance//Nord-ovest</t>
-  </si>
-  <si>
-    <t>expectations of the prices over the next 3 months balance//Nord-est</t>
-  </si>
-  <si>
-    <t>expectations of the prices over the next 3 months balance//Centro (I)</t>
-  </si>
-  <si>
-    <t>expectations of the prices over the next 3 months balance//Mezzogiorno</t>
-  </si>
-  <si>
-    <t>evolution of the employment over the past 3 months balance//Nord-ovest</t>
-  </si>
-  <si>
-    <t>evolution of the employment over the past 3 months balance//Nord-est</t>
-  </si>
-  <si>
-    <t>evolution of the employment over the past 3 months balance//Centro (I)</t>
-  </si>
-  <si>
-    <t>evolution of the employment over the past 3 months balance//Mezzogiorno</t>
-  </si>
-  <si>
-    <t>expectations of the italian economic situation over the next 3 months balance//Nord-ovest</t>
-  </si>
-  <si>
-    <t>expectations of the italian economic situation over the next 3 months balance//Nord-est</t>
-  </si>
-  <si>
-    <t>expectations of the italian economic situation over the next 3 months balance//Centro (I)</t>
-  </si>
-  <si>
-    <t>expectations of the italian economic situation over the next 3 months balance//Mezzogiorno</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1151,695 +366,1153 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:229">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="HK1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="HL1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HU1" s="1" t="s">
-        <v>227</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2003-01</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2003-02</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2003-03</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2003-04</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2003-05</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2003-06</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2003-07</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2003-08</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2003-09</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2003-10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2003-11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2003-12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2004-01</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2004-02</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2004-03</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2004-04</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2004-05</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2004-06</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2004-07</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2004-08</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2004-09</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2004-10</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2004-11</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2004-12</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2005-01</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2005-02</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2005-03</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2005-04</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2005-05</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2005-06</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2005-07</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2005-08</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2005-09</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2005-10</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-11</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2005-12</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2006-01</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2006-02</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2006-03</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2006-04</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2006-05</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-06</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2006-08</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2006-09</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2006-10</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2006-11</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2006-12</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2007-01</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2007-02</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-03</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2007-04</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2007-05</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2007-06</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2007-07</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2007-09</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2007-10</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2007-11</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2007-12</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-01</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2008-02</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2008-03</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2008-04</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2008-05</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2008-06</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2008-07</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-08</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2008-09</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2008-10</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2008-11</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2008-12</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2009-01</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2009-02</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2009-03</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2009-04</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-05</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2009-06</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2009-07</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2009-08</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2009-09</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2009-10</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2009-11</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2009-12</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2010-01</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2010-02</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-03</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2010-04</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2010-05</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2010-06</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2010-07</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2010-08</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2010-09</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-10</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2010-11</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2010-12</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2011-01</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2011-02</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2011-03</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2011-04</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2011-05</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2011-06</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-07</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2011-08</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2011-09</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2011-10</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2011-11</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2011-12</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2012-01</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2012-02</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2012-03</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2012-04</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-05</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2012-06</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2012-07</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2012-08</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2012-09</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2012-10</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2012-11</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-12</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2013-01</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2013-03</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2013-04</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2013-06</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2013-07</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2013-08</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-09</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2013-10</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2013-11</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2013-12</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2014-01</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2014-03</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2014-04</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2014-06</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-07</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2014-08</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2014-09</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2014-10</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2014-11</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2014-12</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2015-01</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-02</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2015-03</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2015-04</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2015-05</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2015-06</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2015-07</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2015-08</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2015-09</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-11</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2015-12</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2016-01</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2016-03</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2016-04</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2016-06</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2016-07</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2016-08</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-09</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>2016-11</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>2017-01</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>2017-03</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-04</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>2017-07</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>2017-08</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>2017-09</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>2017-11</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>2017-12</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-01</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>2018-03</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>2018-07</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>2018-08</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>2018-09</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-11</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>2018-12</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>2019-01</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>2019-08</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>2019-09</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>2020-01</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:229">
-      <c r="A2" s="1" t="s">
-        <v>228</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>confidence climate in the market services sector//Nord-ovest</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>100.8</v>
@@ -2462,7 +2135,7 @@
       <c r="GZ2" t="n">
         <v>71</v>
       </c>
-      <c r="HA2" t="s"/>
+      <c r="HA2" t="inlineStr"/>
       <c r="HB2" t="n">
         <v>44.5</v>
       </c>
@@ -2524,9 +2197,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:229">
-      <c r="A3" s="1" t="s">
-        <v>229</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>confidence climate in the market services sector//Nord-est</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>99.5</v>
@@ -3149,7 +2824,7 @@
       <c r="GZ3" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c r="HA3" t="s"/>
+      <c r="HA3" t="inlineStr"/>
       <c r="HB3" t="n">
         <v>28.2</v>
       </c>
@@ -3211,9 +2886,11 @@
         <v>120.5</v>
       </c>
     </row>
-    <row r="4" spans="1:229">
-      <c r="A4" s="1" t="s">
-        <v>230</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>confidence climate in the market services sector//Centro (I)</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>96.3</v>
@@ -3836,7 +3513,7 @@
       <c r="GZ4" t="n">
         <v>77.7</v>
       </c>
-      <c r="HA4" t="s"/>
+      <c r="HA4" t="inlineStr"/>
       <c r="HB4" t="n">
         <v>40.8</v>
       </c>
@@ -3898,9 +3575,11 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="5" spans="1:229">
-      <c r="A5" s="1" t="s">
-        <v>231</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>confidence climate in the market services sector//Mezzogiorno</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>104</v>
@@ -4523,7 +4202,7 @@
       <c r="GZ5" t="n">
         <v>85.7</v>
       </c>
-      <c r="HA5" t="s"/>
+      <c r="HA5" t="inlineStr"/>
       <c r="HB5" t="n">
         <v>28.8</v>
       </c>
@@ -4585,36 +4264,38 @@
         <v>113.6</v>
       </c>
     </row>
-    <row r="6" spans="1:229">
-      <c r="A6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
-      <c r="V6" t="s"/>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
-      <c r="Z6" t="s"/>
-      <c r="AA6" t="s"/>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>business situation development over the past 3 months balance//Nord-ovest</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="n">
         <v>8.4</v>
       </c>
@@ -5158,7 +4839,7 @@
       <c r="GZ6" t="n">
         <v>-12.5</v>
       </c>
-      <c r="HA6" t="s"/>
+      <c r="HA6" t="inlineStr"/>
       <c r="HB6" t="n">
         <v>-57.8</v>
       </c>
@@ -5220,36 +4901,38 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="7" spans="1:229">
-      <c r="A7" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
-      <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
-      <c r="V7" t="s"/>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
-      <c r="Z7" t="s"/>
-      <c r="AA7" t="s"/>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>business situation development over the past 3 months balance//Nord-est</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="n">
         <v>4.5</v>
       </c>
@@ -5793,7 +5476,7 @@
       <c r="GZ7" t="n">
         <v>-9.800000000000001</v>
       </c>
-      <c r="HA7" t="s"/>
+      <c r="HA7" t="inlineStr"/>
       <c r="HB7" t="n">
         <v>-73</v>
       </c>
@@ -5855,36 +5538,38 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="8" spans="1:229">
-      <c r="A8" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="s"/>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
-      <c r="Z8" t="s"/>
-      <c r="AA8" t="s"/>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>business situation development over the past 3 months balance//Centro (I)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="n">
         <v>-2.5</v>
       </c>
@@ -6428,7 +6113,7 @@
       <c r="GZ8" t="n">
         <v>5</v>
       </c>
-      <c r="HA8" t="s"/>
+      <c r="HA8" t="inlineStr"/>
       <c r="HB8" t="n">
         <v>-62.9</v>
       </c>
@@ -6490,36 +6175,38 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="9" spans="1:229">
-      <c r="A9" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
-      <c r="V9" t="s"/>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
-      <c r="Z9" t="s"/>
-      <c r="AA9" t="s"/>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>business situation development over the past 3 months balance//Mezzogiorno</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="n">
         <v>-18.3</v>
       </c>
@@ -7063,7 +6750,7 @@
       <c r="GZ9" t="n">
         <v>-3.2</v>
       </c>
-      <c r="HA9" t="s"/>
+      <c r="HA9" t="inlineStr"/>
       <c r="HB9" t="n">
         <v>-83.2</v>
       </c>
@@ -7125,9 +6812,11 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="10" spans="1:229">
-      <c r="A10" s="1" t="s">
-        <v>236</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>evolution of the demand over the past 3 months balance//Nord-ovest</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>-10.1</v>
@@ -7750,7 +7439,7 @@
       <c r="GZ10" t="n">
         <v>-16.2</v>
       </c>
-      <c r="HA10" t="s"/>
+      <c r="HA10" t="inlineStr"/>
       <c r="HB10" t="n">
         <v>-62.5</v>
       </c>
@@ -7812,9 +7501,11 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="11" spans="1:229">
-      <c r="A11" s="1" t="s">
-        <v>237</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>evolution of the demand over the past 3 months balance//Nord-est</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>-21.4</v>
@@ -8437,7 +8128,7 @@
       <c r="GZ11" t="n">
         <v>-5.7</v>
       </c>
-      <c r="HA11" t="s"/>
+      <c r="HA11" t="inlineStr"/>
       <c r="HB11" t="n">
         <v>-80.8</v>
       </c>
@@ -8499,9 +8190,11 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="12" spans="1:229">
-      <c r="A12" s="1" t="s">
-        <v>238</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>evolution of the demand over the past 3 months balance//Centro (I)</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>-21.9</v>
@@ -9124,7 +8817,7 @@
       <c r="GZ12" t="n">
         <v>-16.1</v>
       </c>
-      <c r="HA12" t="s"/>
+      <c r="HA12" t="inlineStr"/>
       <c r="HB12" t="n">
         <v>-64.59999999999999</v>
       </c>
@@ -9186,9 +8879,11 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="13" spans="1:229">
-      <c r="A13" s="1" t="s">
-        <v>239</v>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>evolution of the demand over the past 3 months balance//Mezzogiorno</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>-22.6</v>
@@ -9811,7 +9506,7 @@
       <c r="GZ13" t="n">
         <v>-4.4</v>
       </c>
-      <c r="HA13" t="s"/>
+      <c r="HA13" t="inlineStr"/>
       <c r="HB13" t="n">
         <v>-79.3</v>
       </c>
@@ -9873,9 +9568,11 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="14" spans="1:229">
-      <c r="A14" s="1" t="s">
-        <v>240</v>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>expectations of the demand over the next 3 months balance//Nord-ovest</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>24.9</v>
@@ -10498,7 +10195,7 @@
       <c r="GZ14" t="n">
         <v>-44.5</v>
       </c>
-      <c r="HA14" t="s"/>
+      <c r="HA14" t="inlineStr"/>
       <c r="HB14" t="n">
         <v>-37.3</v>
       </c>
@@ -10560,9 +10257,11 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="15" spans="1:229">
-      <c r="A15" s="1" t="s">
-        <v>241</v>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>expectations of the demand over the next 3 months balance//Nord-est</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>25.7</v>
@@ -11185,7 +10884,7 @@
       <c r="GZ15" t="n">
         <v>-56</v>
       </c>
-      <c r="HA15" t="s"/>
+      <c r="HA15" t="inlineStr"/>
       <c r="HB15" t="n">
         <v>-59.7</v>
       </c>
@@ -11247,9 +10946,11 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="16" spans="1:229">
-      <c r="A16" s="1" t="s">
-        <v>242</v>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>expectations of the demand over the next 3 months balance//Centro (I)</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>19.2</v>
@@ -11872,7 +11573,7 @@
       <c r="GZ16" t="n">
         <v>-50.1</v>
       </c>
-      <c r="HA16" t="s"/>
+      <c r="HA16" t="inlineStr"/>
       <c r="HB16" t="n">
         <v>-47.1</v>
       </c>
@@ -11934,9 +11635,11 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="17" spans="1:229">
-      <c r="A17" s="1" t="s">
-        <v>243</v>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>expectations of the demand over the next 3 months balance//Mezzogiorno</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>20.7</v>
@@ -12559,7 +12262,7 @@
       <c r="GZ17" t="n">
         <v>-45.1</v>
       </c>
-      <c r="HA17" t="s"/>
+      <c r="HA17" t="inlineStr"/>
       <c r="HB17" t="n">
         <v>-54.4</v>
       </c>
@@ -12621,9 +12324,11 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="18" spans="1:229">
-      <c r="A18" s="1" t="s">
-        <v>244</v>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>expectations of the employment over the next 3 months balance//Nord-ovest</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>4</v>
@@ -13246,7 +12951,7 @@
       <c r="GZ18" t="n">
         <v>-16.1</v>
       </c>
-      <c r="HA18" t="s"/>
+      <c r="HA18" t="inlineStr"/>
       <c r="HB18" t="n">
         <v>-11.4</v>
       </c>
@@ -13308,9 +13013,11 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="19" spans="1:229">
-      <c r="A19" s="1" t="s">
-        <v>245</v>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>expectations of the employment over the next 3 months balance//Nord-est</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>8</v>
@@ -13933,7 +13640,7 @@
       <c r="GZ19" t="n">
         <v>-11.3</v>
       </c>
-      <c r="HA19" t="s"/>
+      <c r="HA19" t="inlineStr"/>
       <c r="HB19" t="n">
         <v>-36.9</v>
       </c>
@@ -13995,9 +13702,11 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="20" spans="1:229">
-      <c r="A20" s="1" t="s">
-        <v>246</v>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>expectations of the employment over the next 3 months balance//Centro (I)</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>7.1</v>
@@ -14620,7 +14329,7 @@
       <c r="GZ20" t="n">
         <v>-16.5</v>
       </c>
-      <c r="HA20" t="s"/>
+      <c r="HA20" t="inlineStr"/>
       <c r="HB20" t="n">
         <v>-18.3</v>
       </c>
@@ -14682,9 +14391,11 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:229">
-      <c r="A21" s="1" t="s">
-        <v>247</v>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>expectations of the employment over the next 3 months balance//Mezzogiorno</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>6.3</v>
@@ -15307,7 +15018,7 @@
       <c r="GZ21" t="n">
         <v>-5.8</v>
       </c>
-      <c r="HA21" t="s"/>
+      <c r="HA21" t="inlineStr"/>
       <c r="HB21" t="n">
         <v>-26.5</v>
       </c>
@@ -15369,9 +15080,11 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:229">
-      <c r="A22" s="1" t="s">
-        <v>248</v>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>expectations of the prices over the next 3 months balance//Nord-ovest</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>1.6</v>
@@ -15994,7 +15707,7 @@
       <c r="GZ22" t="n">
         <v>-3.8</v>
       </c>
-      <c r="HA22" t="s"/>
+      <c r="HA22" t="inlineStr"/>
       <c r="HB22" t="n">
         <v>-8.800000000000001</v>
       </c>
@@ -16056,9 +15769,11 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="23" spans="1:229">
-      <c r="A23" s="1" t="s">
-        <v>249</v>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>expectations of the prices over the next 3 months balance//Nord-est</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>10.8</v>
@@ -16681,7 +16396,7 @@
       <c r="GZ23" t="n">
         <v>-13.2</v>
       </c>
-      <c r="HA23" t="s"/>
+      <c r="HA23" t="inlineStr"/>
       <c r="HB23" t="n">
         <v>-20.9</v>
       </c>
@@ -16743,9 +16458,11 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="24" spans="1:229">
-      <c r="A24" s="1" t="s">
-        <v>250</v>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>expectations of the prices over the next 3 months balance//Centro (I)</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>7.5</v>
@@ -17368,7 +17085,7 @@
       <c r="GZ24" t="n">
         <v>-4.7</v>
       </c>
-      <c r="HA24" t="s"/>
+      <c r="HA24" t="inlineStr"/>
       <c r="HB24" t="n">
         <v>-13.4</v>
       </c>
@@ -17430,9 +17147,11 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="25" spans="1:229">
-      <c r="A25" s="1" t="s">
-        <v>251</v>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>expectations of the prices over the next 3 months balance//Mezzogiorno</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>9.5</v>
@@ -18055,7 +17774,7 @@
       <c r="GZ25" t="n">
         <v>-0.4</v>
       </c>
-      <c r="HA25" t="s"/>
+      <c r="HA25" t="inlineStr"/>
       <c r="HB25" t="n">
         <v>-13.9</v>
       </c>
@@ -18117,9 +17836,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:229">
-      <c r="A26" s="1" t="s">
-        <v>252</v>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>evolution of the employment over the past 3 months balance//Nord-ovest</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>-1.8</v>
@@ -18742,7 +18463,7 @@
       <c r="GZ26" t="n">
         <v>-3.8</v>
       </c>
-      <c r="HA26" t="s"/>
+      <c r="HA26" t="inlineStr"/>
       <c r="HB26" t="n">
         <v>-17</v>
       </c>
@@ -18804,9 +18525,11 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="27" spans="1:229">
-      <c r="A27" s="1" t="s">
-        <v>253</v>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>evolution of the employment over the past 3 months balance//Nord-est</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>0.9</v>
@@ -19429,7 +19152,7 @@
       <c r="GZ27" t="n">
         <v>-0.5</v>
       </c>
-      <c r="HA27" t="s"/>
+      <c r="HA27" t="inlineStr"/>
       <c r="HB27" t="n">
         <v>-26.7</v>
       </c>
@@ -19491,9 +19214,11 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="28" spans="1:229">
-      <c r="A28" s="1" t="s">
-        <v>254</v>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>evolution of the employment over the past 3 months balance//Centro (I)</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>-1.9</v>
@@ -20116,7 +19841,7 @@
       <c r="GZ28" t="n">
         <v>-11.1</v>
       </c>
-      <c r="HA28" t="s"/>
+      <c r="HA28" t="inlineStr"/>
       <c r="HB28" t="n">
         <v>-21.6</v>
       </c>
@@ -20178,9 +19903,11 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="29" spans="1:229">
-      <c r="A29" s="1" t="s">
-        <v>255</v>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>evolution of the employment over the past 3 months balance//Mezzogiorno</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>-2.3</v>
@@ -20803,7 +20530,7 @@
       <c r="GZ29" t="n">
         <v>-13.4</v>
       </c>
-      <c r="HA29" t="s"/>
+      <c r="HA29" t="inlineStr"/>
       <c r="HB29" t="n">
         <v>-35.4</v>
       </c>
@@ -20865,9 +20592,11 @@
         <v>-9.800000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:229">
-      <c r="A30" s="1" t="s">
-        <v>256</v>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>expectations of the italian economic situation over the next 3 months balance//Nord-ovest</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>-13.3</v>
@@ -21490,7 +21219,7 @@
       <c r="GZ30" t="n">
         <v>-57.5</v>
       </c>
-      <c r="HA30" t="s"/>
+      <c r="HA30" t="inlineStr"/>
       <c r="HB30" t="n">
         <v>-66.5</v>
       </c>
@@ -21552,9 +21281,11 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="31" spans="1:229">
-      <c r="A31" s="1" t="s">
-        <v>257</v>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>expectations of the italian economic situation over the next 3 months balance//Nord-est</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>-7</v>
@@ -22177,7 +21908,7 @@
       <c r="GZ31" t="n">
         <v>-73.3</v>
       </c>
-      <c r="HA31" t="s"/>
+      <c r="HA31" t="inlineStr"/>
       <c r="HB31" t="n">
         <v>-81.59999999999999</v>
       </c>
@@ -22239,9 +21970,11 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="32" spans="1:229">
-      <c r="A32" s="1" t="s">
-        <v>258</v>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>expectations of the italian economic situation over the next 3 months balance//Centro (I)</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>-17.4</v>
@@ -22864,7 +22597,7 @@
       <c r="GZ32" t="n">
         <v>-79.2</v>
       </c>
-      <c r="HA32" t="s"/>
+      <c r="HA32" t="inlineStr"/>
       <c r="HB32" t="n">
         <v>-87.2</v>
       </c>
@@ -22926,9 +22659,11 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="33" spans="1:229">
-      <c r="A33" s="1" t="s">
-        <v>259</v>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>expectations of the italian economic situation over the next 3 months balance//Mezzogiorno</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>-10.9</v>
@@ -23551,7 +23286,7 @@
       <c r="GZ33" t="n">
         <v>-66.09999999999999</v>
       </c>
-      <c r="HA33" t="s"/>
+      <c r="HA33" t="inlineStr"/>
       <c r="HB33" t="n">
         <v>-71.3</v>
       </c>
